--- a/public/static/file/importExcel/弱覆盖信息导入模板.xlsx
+++ b/public/static/file/importExcel/弱覆盖信息导入模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33440" yWindow="1740" windowWidth="10000" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="25600" windowHeight="20480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="弱覆盖统计" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>城市</t>
   </si>
@@ -117,24 +117,6 @@
   </si>
   <si>
     <t>商业区</t>
-  </si>
-  <si>
-    <t>景区</t>
-  </si>
-  <si>
-    <t>党政军</t>
-  </si>
-  <si>
-    <t>住宅</t>
-  </si>
-  <si>
-    <t>医院</t>
-  </si>
-  <si>
-    <t>酒店</t>
-  </si>
-  <si>
-    <t>企事业单位</t>
   </si>
   <si>
     <t>贵阳观山湖区金阳移动枢纽楼</t>
@@ -618,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -629,6 +611,8 @@
     <col min="1" max="1" width="26.1640625" customWidth="1"/>
     <col min="3" max="3" width="29.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
     <col min="11" max="11" width="14.1640625" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
     <col min="15" max="15" width="14.6640625" style="6" customWidth="1"/>
@@ -666,19 +650,19 @@
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>12</v>
@@ -701,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -715,9 +699,7 @@
       <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
@@ -725,19 +707,19 @@
         <v>-140</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>25</v>
@@ -763,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -777,9 +759,7 @@
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
@@ -787,19 +767,19 @@
         <v>-140</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>25</v>
@@ -814,378 +794,6 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2">
-        <v>-140</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="2">
-        <v>-140</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2">
-        <v>-140</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="2">
-        <v>-140</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2">
-        <v>-140</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="2">
-        <v>-140</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9" t="s">
         <v>28</v>
       </c>
     </row>
